--- a/季诚/成交客户/海宝照明/标签.xlsx
+++ b/季诚/成交客户/海宝照明/标签.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="115-3A" sheetId="1" r:id="rId1"/>
     <sheet name="120-3A" sheetId="2" r:id="rId2"/>
-    <sheet name="120-3A (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="un26" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -99,7 +99,7 @@
     <t>20000 PCS</t>
   </si>
   <si>
-    <t>3V60MA/2835/4000K/80显指</t>
+    <t>3V60MA/2835/4000K/ 80显指</t>
   </si>
 </sst>
 </file>
@@ -107,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -135,14 +135,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -157,6 +149,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -173,16 +173,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,24 +201,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,38 +218,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,16 +232,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,43 +301,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,139 +469,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +492,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,17 +519,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,11 +567,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,181 +592,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,9 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1147,7 +1144,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1902180014</v>
       </c>
     </row>
@@ -1213,7 +1210,7 @@
       <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1224,7 +1221,7 @@
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1240,8 +1237,8 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1275,7 +1272,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B16:B17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="2"/>
@@ -1309,7 +1306,7 @@
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="17.4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -1318,7 +1315,7 @@
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="17.4" spans="1:3">
       <c r="A5" s="2" t="s">
@@ -1333,10 +1330,10 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>1906050001</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="17.4" spans="1:3">
       <c r="A7" s="2" t="s">
@@ -1357,13 +1354,13 @@
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.118055555555556" right="0.0784722222222222" top="0.156944444444444" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="260" scale="55" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="260" scale="56" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/季诚/成交客户/海宝照明/标签.xlsx
+++ b/季诚/成交客户/海宝照明/标签.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9540" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="115-3A" sheetId="1" r:id="rId1"/>
     <sheet name="120-3A" sheetId="2" r:id="rId2"/>
     <sheet name="un26" sheetId="3" r:id="rId3"/>
+    <sheet name="uw26" sheetId="5" r:id="rId4"/>
+    <sheet name="us26" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>Model：</t>
   </si>
@@ -100,6 +103,21 @@
   </si>
   <si>
     <t>3V60MA/2835/4000K/ 80显指</t>
+  </si>
+  <si>
+    <t>JC-2835PW1A80</t>
+  </si>
+  <si>
+    <t>3V60MA/2835/6000K/ 80显指</t>
+  </si>
+  <si>
+    <t>JC-2835PS1A80</t>
+  </si>
+  <si>
+    <t>30A(2900-3200K)</t>
+  </si>
+  <si>
+    <t>3V60MA/2835/3000K/ 80显指</t>
   </si>
 </sst>
 </file>
@@ -107,9 +125,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -138,12 +156,126 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,43 +291,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,84 +303,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -301,187 +319,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +510,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,15 +555,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -539,6 +566,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,30 +602,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -597,148 +615,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1271,7 +1289,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1363,4 +1381,222 @@
   <pageSetup paperSize="260" scale="56" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="15.1" customWidth="1"/>
+    <col min="2" max="2" width="26.8" customWidth="1"/>
+    <col min="3" max="3" width="60.6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="17.4" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1906110012</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="34.8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.118055555555556" right="0.0784722222222222" top="0.156944444444444" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="260" scale="56" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="15.1" customWidth="1"/>
+    <col min="2" max="2" width="26.8" customWidth="1"/>
+    <col min="3" max="3" width="60.6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="17.4" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1906110014</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="17.4" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="34.8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.118055555555556" right="0.0784722222222222" top="0.156944444444444" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="260" scale="56" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/季诚/成交客户/海宝照明/标签.xlsx
+++ b/季诚/成交客户/海宝照明/标签.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9540" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9612"/>
   </bookViews>
   <sheets>
-    <sheet name="115-3A" sheetId="1" r:id="rId1"/>
-    <sheet name="120-3A" sheetId="2" r:id="rId2"/>
-    <sheet name="un26" sheetId="3" r:id="rId3"/>
-    <sheet name="uw26" sheetId="5" r:id="rId4"/>
-    <sheet name="us26" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="9v100ma6500k" sheetId="1" r:id="rId1"/>
+    <sheet name="9v100ma2700k" sheetId="7" r:id="rId2"/>
+    <sheet name="120-3A" sheetId="2" r:id="rId3"/>
+    <sheet name="un26" sheetId="3" r:id="rId4"/>
+    <sheet name="uw26" sheetId="5" r:id="rId5"/>
+    <sheet name="us26" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
   <si>
     <t>Model：</t>
   </si>
@@ -36,55 +37,73 @@
     <t>IV：</t>
   </si>
   <si>
-    <t>T(120-125LM)</t>
+    <t>T(120-130LM)</t>
   </si>
   <si>
     <t>VF：</t>
   </si>
   <si>
+    <t>9.1-9.4V</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>&gt;80</t>
+  </si>
+  <si>
+    <t>Lot No：</t>
+  </si>
+  <si>
+    <t>0205270004</t>
+  </si>
+  <si>
+    <t>Quantity：</t>
+  </si>
+  <si>
+    <t>64000 PCS</t>
+  </si>
+  <si>
+    <t>Remarks：</t>
+  </si>
+  <si>
+    <t>9V/100MA 2835</t>
+  </si>
+  <si>
+    <t>27A(2600-2800K)</t>
+  </si>
+  <si>
+    <t>S(110-120LM)</t>
+  </si>
+  <si>
     <t>8.8-9.1V</t>
   </si>
   <si>
-    <t>Ra</t>
-  </si>
-  <si>
-    <t>&gt;80</t>
-  </si>
-  <si>
-    <t>Lot No：</t>
-  </si>
-  <si>
-    <t>Quantity：</t>
+    <t>0205110018</t>
+  </si>
+  <si>
+    <t>16000 PCS</t>
+  </si>
+  <si>
+    <t>JC-2835PW3A70-1W</t>
+  </si>
+  <si>
+    <t>U(125-130LM)</t>
+  </si>
+  <si>
+    <t>根据实际流明标，T(120-125LM),U(125-130LM),V(135-140LM)</t>
+  </si>
+  <si>
+    <t>根据实际电压标</t>
+  </si>
+  <si>
+    <t>&gt;70</t>
+  </si>
+  <si>
+    <t>这行数字跟原标签LOT.NO写一样就行</t>
   </si>
   <si>
     <t>18000 PCS</t>
-  </si>
-  <si>
-    <t>Remarks：</t>
-  </si>
-  <si>
-    <t>9V/100MA 2835</t>
-  </si>
-  <si>
-    <t>JC-2835PW3A70-1W</t>
-  </si>
-  <si>
-    <t>U(125-130LM)</t>
-  </si>
-  <si>
-    <t>根据实际流明标，T(120-125LM),U(125-130LM),V(135-140LM)</t>
-  </si>
-  <si>
-    <t>9.1-9.4V</t>
-  </si>
-  <si>
-    <t>根据实际电压标</t>
-  </si>
-  <si>
-    <t>&gt;70</t>
-  </si>
-  <si>
-    <t>这行数字跟原标签LOT.NO写一样就行</t>
   </si>
   <si>
     <t>JC-2835PN1A80</t>
@@ -126,9 +145,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -156,14 +175,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,7 +209,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +247,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -204,16 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +300,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -235,21 +315,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -257,52 +322,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -319,187 +338,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,33 +529,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,21 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +579,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -610,153 +605,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -784,6 +803,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1108,8 +1130,8 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1162,34 +1184,122 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
-        <v>1902180014</v>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.156944444444444" right="0.0388888888888889" top="0.0784722222222222" bottom="0.0388888888888889" header="0.0784722222222222" footer="0.10625"/>
-  <pageSetup paperSize="282" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="260" scale="55" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.6" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.6" customWidth="1"/>
+    <col min="2" max="2" width="26.8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.4" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="17.4" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="17.4" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="17.4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="17.4" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="17.4" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="17.4" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="17.4" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.156944444444444" right="0.0388888888888889" top="0.0784722222222222" bottom="0.0388888888888889" header="0.0784722222222222" footer="0.10625"/>
+  <pageSetup paperSize="260" scale="55" orientation="portrait" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C8"/>
@@ -1210,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="17.4" spans="1:2">
@@ -1226,10 +1336,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="17.4" spans="1:3">
@@ -1237,10 +1347,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" ht="17.4" spans="1:2">
@@ -1248,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" ht="17.4" spans="1:3">
@@ -1257,23 +1367,23 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="17.4" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" ht="17.4" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1305,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="17.4" spans="1:3">
@@ -1313,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -1322,7 +1432,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1331,7 +1441,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1355,19 +1465,19 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="17.4" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="34.8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -1383,14 +1493,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1406,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="17.4" spans="1:3">
@@ -1423,7 +1533,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1432,7 +1542,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1456,19 +1566,19 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="17.4" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="34.8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -1484,7 +1594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1507,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="17.4" spans="1:3">
@@ -1515,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -1524,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1533,7 +1643,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -1557,19 +1667,19 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="17.4" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="34.8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -1585,7 +1695,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
